--- a/src/main/resources/EstimatedCostDatabaseDeep.xlsx
+++ b/src/main/resources/EstimatedCostDatabaseDeep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Java_Backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68304621-6F03-4F1D-8DDA-2E75F187DA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87214CB3-94A8-441D-837E-19FB5413DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="12336" activeTab="3" xr2:uid="{88A8EF8C-6D43-459C-89D4-28D05EF8340A}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{88A8EF8C-6D43-459C-89D4-28D05EF8340A}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98F39DF-E51E-4616-829B-248010899F34}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -720,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDC51DE-CB91-43F9-A9DD-FFF77BA3ABF1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -782,6 +782,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="524ab647-2da2-4095-8ffb-9fbd023d6304" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0e03b6e-3293-4c3a-b252-dee58844f545">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC7FD44400C6FB4EB3E65631B04CEC50" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5530efbf4ba577ccb554b294d1decb2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e0e03b6e-3293-4c3a-b252-dee58844f545" xmlns:ns3="524ab647-2da2-4095-8ffb-9fbd023d6304" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4bda59509a4d8c664791334da8efd67" ns2:_="" ns3:_="">
     <xsd:import namespace="e0e03b6e-3293-4c3a-b252-dee58844f545"/>
@@ -1018,27 +1038,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="524ab647-2da2-4095-8ffb-9fbd023d6304" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0e03b6e-3293-4c3a-b252-dee58844f545">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7963069D-CEF8-49C9-99D2-1847B8EFF267}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C08A0B-1F6B-4ABC-A784-F409375C9345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="524ab647-2da2-4095-8ffb-9fbd023d6304"/>
+    <ds:schemaRef ds:uri="e0e03b6e-3293-4c3a-b252-dee58844f545"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A86A42-1012-464B-9D57-D92CC8B29010}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1055,23 +1074,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C08A0B-1F6B-4ABC-A784-F409375C9345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="524ab647-2da2-4095-8ffb-9fbd023d6304"/>
-    <ds:schemaRef ds:uri="e0e03b6e-3293-4c3a-b252-dee58844f545"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7963069D-CEF8-49C9-99D2-1847B8EFF267}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/EstimatedCostDatabaseDeep.xlsx
+++ b/src/main/resources/EstimatedCostDatabaseDeep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Java_Backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87214CB3-94A8-441D-837E-19FB5413DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69DA10-4003-4F2E-85E6-509C852C5C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{88A8EF8C-6D43-459C-89D4-28D05EF8340A}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{88A8EF8C-6D43-459C-89D4-28D05EF8340A}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,26 +782,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="524ab647-2da2-4095-8ffb-9fbd023d6304" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0e03b6e-3293-4c3a-b252-dee58844f545">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC7FD44400C6FB4EB3E65631B04CEC50" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5530efbf4ba577ccb554b294d1decb2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e0e03b6e-3293-4c3a-b252-dee58844f545" xmlns:ns3="524ab647-2da2-4095-8ffb-9fbd023d6304" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4bda59509a4d8c664791334da8efd67" ns2:_="" ns3:_="">
     <xsd:import namespace="e0e03b6e-3293-4c3a-b252-dee58844f545"/>
@@ -1038,26 +1018,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="524ab647-2da2-4095-8ffb-9fbd023d6304" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0e03b6e-3293-4c3a-b252-dee58844f545">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7963069D-CEF8-49C9-99D2-1847B8EFF267}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C08A0B-1F6B-4ABC-A784-F409375C9345}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="524ab647-2da2-4095-8ffb-9fbd023d6304"/>
-    <ds:schemaRef ds:uri="e0e03b6e-3293-4c3a-b252-dee58844f545"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A86A42-1012-464B-9D57-D92CC8B29010}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1074,4 +1055,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C08A0B-1F6B-4ABC-A784-F409375C9345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="524ab647-2da2-4095-8ffb-9fbd023d6304"/>
+    <ds:schemaRef ds:uri="e0e03b6e-3293-4c3a-b252-dee58844f545"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7963069D-CEF8-49C9-99D2-1847B8EFF267}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>